--- a/Datos/Anuario2024/090205_SanVicenteFerrer.xlsx
+++ b/Datos/Anuario2024/090205_SanVicenteFerrer.xlsx
@@ -1,210 +1,278 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Tomas\AplAnu2024\System\Xls_Cast\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-15" yWindow="4770" windowWidth="15480" windowHeight="4830" tabRatio="725" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-15" yWindow="4770" windowWidth="15480" windowHeight="4830" tabRatio="725"/>
   </bookViews>
   <sheets>
-    <sheet name="0" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="0" sheetId="68" r:id="rId1"/>
+    <sheet name="1" sheetId="70" r:id="rId2"/>
+    <sheet name="2" sheetId="203" r:id="rId3"/>
+    <sheet name="3" sheetId="204" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_R1_1">#REF!</definedName>
+    <definedName name="_R1_2" localSheetId="2">#REF!</definedName>
+    <definedName name="_R1_2" localSheetId="3">#REF!</definedName>
     <definedName name="_R1_2">#REF!</definedName>
     <definedName name="_R1_3">#REF!</definedName>
+    <definedName name="_R1_4" localSheetId="2">#REF!</definedName>
+    <definedName name="_R1_4" localSheetId="3">#REF!</definedName>
     <definedName name="_R1_4">#REF!</definedName>
     <definedName name="_R1_5">#REF!</definedName>
     <definedName name="_R2_1">#REF!</definedName>
+    <definedName name="_R2_2" localSheetId="2">#REF!</definedName>
+    <definedName name="_R2_2" localSheetId="3">#REF!</definedName>
     <definedName name="_R2_2">#REF!</definedName>
     <definedName name="_R2_3">#REF!</definedName>
     <definedName name="_R2_4">#REF!</definedName>
     <definedName name="_R3_1">#REF!</definedName>
+    <definedName name="_R3_2" localSheetId="2">#REF!</definedName>
+    <definedName name="_R3_2" localSheetId="3">#REF!</definedName>
     <definedName name="_R3_2">#REF!</definedName>
     <definedName name="_R3_3">#REF!</definedName>
     <definedName name="_R4_1">#REF!</definedName>
+    <definedName name="_R4_10" localSheetId="2">#REF!</definedName>
+    <definedName name="_R4_10" localSheetId="3">#REF!</definedName>
     <definedName name="_R4_10">#REF!</definedName>
+    <definedName name="_R4_11" localSheetId="2">#REF!</definedName>
+    <definedName name="_R4_11" localSheetId="3">#REF!</definedName>
     <definedName name="_R4_11">#REF!</definedName>
+    <definedName name="_R4_12" localSheetId="2">#REF!</definedName>
+    <definedName name="_R4_12" localSheetId="3">#REF!</definedName>
     <definedName name="_R4_12">#REF!</definedName>
+    <definedName name="_R4_13" localSheetId="2">#REF!</definedName>
+    <definedName name="_R4_13" localSheetId="3">#REF!</definedName>
     <definedName name="_R4_13">#REF!</definedName>
+    <definedName name="_R4_14" localSheetId="2">#REF!</definedName>
+    <definedName name="_R4_14" localSheetId="3">#REF!</definedName>
     <definedName name="_R4_14">#REF!</definedName>
+    <definedName name="_R4_15" localSheetId="2">#REF!</definedName>
+    <definedName name="_R4_15" localSheetId="3">#REF!</definedName>
     <definedName name="_R4_15">#REF!</definedName>
+    <definedName name="_R4_16" localSheetId="2">#REF!</definedName>
+    <definedName name="_R4_16" localSheetId="3">#REF!</definedName>
     <definedName name="_R4_16">#REF!</definedName>
+    <definedName name="_R4_17" localSheetId="2">#REF!</definedName>
+    <definedName name="_R4_17" localSheetId="3">#REF!</definedName>
     <definedName name="_R4_17">#REF!</definedName>
+    <definedName name="_R4_18" localSheetId="2">#REF!</definedName>
+    <definedName name="_R4_18" localSheetId="3">#REF!</definedName>
     <definedName name="_R4_18">#REF!</definedName>
+    <definedName name="_R4_19" localSheetId="2">#REF!</definedName>
+    <definedName name="_R4_19" localSheetId="3">#REF!</definedName>
     <definedName name="_R4_19">#REF!</definedName>
     <definedName name="_R4_2">#REF!</definedName>
+    <definedName name="_R4_20" localSheetId="2">#REF!</definedName>
+    <definedName name="_R4_20" localSheetId="3">#REF!</definedName>
     <definedName name="_R4_20">#REF!</definedName>
+    <definedName name="_R4_21" localSheetId="2">#REF!</definedName>
+    <definedName name="_R4_21" localSheetId="3">#REF!</definedName>
     <definedName name="_R4_21">#REF!</definedName>
     <definedName name="_R4_3">#REF!</definedName>
+    <definedName name="_R4_4" localSheetId="2">#REF!</definedName>
+    <definedName name="_R4_4" localSheetId="3">#REF!</definedName>
     <definedName name="_R4_4">#REF!</definedName>
     <definedName name="_R4_5">#REF!</definedName>
     <definedName name="_R4_6">#REF!</definedName>
     <definedName name="_R4_7">#REF!</definedName>
+    <definedName name="_R4_8" localSheetId="2">#REF!</definedName>
+    <definedName name="_R4_8" localSheetId="3">#REF!</definedName>
     <definedName name="_R4_8">#REF!</definedName>
+    <definedName name="_R4_9" localSheetId="2">#REF!</definedName>
+    <definedName name="_R4_9" localSheetId="3">#REF!</definedName>
     <definedName name="_R4_9">#REF!</definedName>
+    <definedName name="_R5_1" localSheetId="2">#REF!</definedName>
+    <definedName name="_R5_1" localSheetId="3">#REF!</definedName>
     <definedName name="_R5_1">#REF!</definedName>
+    <definedName name="_R5_2" localSheetId="2">#REF!</definedName>
+    <definedName name="_R5_2" localSheetId="3">#REF!</definedName>
     <definedName name="_R5_2">#REF!</definedName>
+    <definedName name="_R5_3" localSheetId="2">#REF!</definedName>
+    <definedName name="_R5_3" localSheetId="3">#REF!</definedName>
     <definedName name="_R5_3">#REF!</definedName>
     <definedName name="_R5_4">#REF!</definedName>
+    <definedName name="_R5_5" localSheetId="2">#REF!</definedName>
+    <definedName name="_R5_5" localSheetId="3">#REF!</definedName>
     <definedName name="_R5_5">#REF!</definedName>
+    <definedName name="_R5_6" localSheetId="2">#REF!</definedName>
+    <definedName name="_R5_6" localSheetId="3">#REF!</definedName>
     <definedName name="_R5_6">#REF!</definedName>
-    <definedName name="_R1_2" localSheetId="2">#REF!</definedName>
-    <definedName name="_R1_4" localSheetId="2">#REF!</definedName>
-    <definedName name="_R2_2" localSheetId="2">#REF!</definedName>
-    <definedName name="_R3_2" localSheetId="2">#REF!</definedName>
-    <definedName name="_R4_10" localSheetId="2">#REF!</definedName>
-    <definedName name="_R4_11" localSheetId="2">#REF!</definedName>
-    <definedName name="_R4_12" localSheetId="2">#REF!</definedName>
-    <definedName name="_R4_13" localSheetId="2">#REF!</definedName>
-    <definedName name="_R4_14" localSheetId="2">#REF!</definedName>
-    <definedName name="_R4_15" localSheetId="2">#REF!</definedName>
-    <definedName name="_R4_16" localSheetId="2">#REF!</definedName>
-    <definedName name="_R4_17" localSheetId="2">#REF!</definedName>
-    <definedName name="_R4_18" localSheetId="2">#REF!</definedName>
-    <definedName name="_R4_19" localSheetId="2">#REF!</definedName>
-    <definedName name="_R4_20" localSheetId="2">#REF!</definedName>
-    <definedName name="_R4_21" localSheetId="2">#REF!</definedName>
-    <definedName name="_R4_4" localSheetId="2">#REF!</definedName>
-    <definedName name="_R4_8" localSheetId="2">#REF!</definedName>
-    <definedName name="_R4_9" localSheetId="2">#REF!</definedName>
-    <definedName name="_R5_1" localSheetId="2">#REF!</definedName>
-    <definedName name="_R5_2" localSheetId="2">#REF!</definedName>
-    <definedName name="_R5_3" localSheetId="2">#REF!</definedName>
-    <definedName name="_R5_5" localSheetId="2">#REF!</definedName>
-    <definedName name="_R5_6" localSheetId="2">#REF!</definedName>
-    <definedName name="_R1_2" localSheetId="3">#REF!</definedName>
-    <definedName name="_R1_4" localSheetId="3">#REF!</definedName>
-    <definedName name="_R2_2" localSheetId="3">#REF!</definedName>
-    <definedName name="_R3_2" localSheetId="3">#REF!</definedName>
-    <definedName name="_R4_10" localSheetId="3">#REF!</definedName>
-    <definedName name="_R4_11" localSheetId="3">#REF!</definedName>
-    <definedName name="_R4_12" localSheetId="3">#REF!</definedName>
-    <definedName name="_R4_13" localSheetId="3">#REF!</definedName>
-    <definedName name="_R4_14" localSheetId="3">#REF!</definedName>
-    <definedName name="_R4_15" localSheetId="3">#REF!</definedName>
-    <definedName name="_R4_16" localSheetId="3">#REF!</definedName>
-    <definedName name="_R4_17" localSheetId="3">#REF!</definedName>
-    <definedName name="_R4_18" localSheetId="3">#REF!</definedName>
-    <definedName name="_R4_19" localSheetId="3">#REF!</definedName>
-    <definedName name="_R4_20" localSheetId="3">#REF!</definedName>
-    <definedName name="_R4_21" localSheetId="3">#REF!</definedName>
-    <definedName name="_R4_4" localSheetId="3">#REF!</definedName>
-    <definedName name="_R4_8" localSheetId="3">#REF!</definedName>
-    <definedName name="_R4_9" localSheetId="3">#REF!</definedName>
-    <definedName name="_R5_1" localSheetId="3">#REF!</definedName>
-    <definedName name="_R5_2" localSheetId="3">#REF!</definedName>
-    <definedName name="_R5_3" localSheetId="3">#REF!</definedName>
-    <definedName name="_R5_5" localSheetId="3">#REF!</definedName>
-    <definedName name="_R5_6" localSheetId="3">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="18">
+  <si>
+    <t xml:space="preserve">Total </t>
+  </si>
+  <si>
+    <t>Otro profesorado</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Mujeres</t>
+  </si>
+  <si>
+    <t>Doctorado en Teología</t>
+  </si>
+  <si>
+    <t>Hombres</t>
+  </si>
+  <si>
+    <t>Bachillerato canónico (Grado)</t>
+  </si>
+  <si>
+    <t>Licenciatura en Teología (Máster)</t>
+  </si>
+  <si>
+    <t>Instituto Superior de Ciencias religiosas</t>
+  </si>
+  <si>
+    <t>Bachillerato en Ciencias Religiosas (Grado)</t>
+  </si>
+  <si>
+    <t>Licenciatura en Ciencias Religiosas (Máster)</t>
+  </si>
+  <si>
+    <t>Profesorado titular</t>
+  </si>
+  <si>
+    <t>FACULTAD DE TEOLOGÍA SAN VICENTE FERRER</t>
+  </si>
+  <si>
+    <t>Fuente: Facultad de Teología San Vicente Ferrer.</t>
+  </si>
+  <si>
+    <t>1. Alumnado matriculado por centro, titulación y sexo. Curso 2023/24</t>
+  </si>
+  <si>
+    <t>2. Alumnado titulado por centro, titulación y sexo. Curso 2022/23</t>
+  </si>
+  <si>
+    <t>Facultad de Teología</t>
+  </si>
+  <si>
+    <t>3. Profesorado universitario según categoría y sexo. Curso 2023/24</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="#,##0.00&quot; &quot;[$€-C0A];[Red]&quot;-&quot;#,##0.00&quot; &quot;[$€-C0A]"/>
-    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="168" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="15">
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
       <sz val="10"/>
-    </font>
-    <font>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
       <sz val="10"/>
-    </font>
-    <font>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <sz val="10"/>
-    </font>
-    <font>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <sz val="12"/>
-    </font>
-    <font>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <i val="1"/>
-      <sz val="11"/>
-    </font>
-    <font>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="9"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <color indexed="9"/>
-      <sz val="10"/>
-    </font>
-    <font>
+    </font>
+    <font>
+      <i/>
+      <sz val="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <i val="1"/>
-      <sz val="8"/>
-    </font>
-    <font>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
+    </font>
+    <font>
       <sz val="10"/>
-    </font>
-    <font>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Arial1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial1"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial1"/>
+    </font>
+    <font>
+      <u/>
       <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial1"/>
-      <b val="1"/>
-      <i val="1"/>
-      <color theme="1"/>
-      <sz val="16"/>
-    </font>
-    <font>
-      <name val="Arial1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="Arial1"/>
-      <b val="1"/>
-      <i val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <u val="single"/>
-    </font>
-    <font>
+      <color indexed="61"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color indexed="61"/>
+    </font>
+    <font>
+      <u/>
       <sz val="10"/>
-      <u val="single"/>
-    </font>
-    <font>
+      <color indexed="12"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color indexed="12"/>
+    </font>
+    <font>
       <sz val="10"/>
-      <u val="single"/>
-    </font>
-    <font>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
     </font>
   </fonts>
   <fills count="5">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -248,93 +316,94 @@
   </borders>
   <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
-      <protection locked="0" hidden="0"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="25">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Heading" xfId="1"/>
-    <cellStyle name="Heading1" xfId="2"/>
-    <cellStyle name="Normal 2" xfId="3"/>
-    <cellStyle name="Normal 3" xfId="4"/>
-    <cellStyle name="Result" xfId="5"/>
-    <cellStyle name="Result2" xfId="6"/>
     <cellStyle name="Comma [0]_Apoyo_PDI" xfId="7"/>
     <cellStyle name="Comma_Apoyo_PDI" xfId="8"/>
     <cellStyle name="Currency [0]_Apoyo_PDI" xfId="9"/>
     <cellStyle name="Currency_Apoyo_PDI" xfId="10"/>
     <cellStyle name="Followed Hyperlink_Apoyo_PDI" xfId="11"/>
+    <cellStyle name="Heading" xfId="1"/>
+    <cellStyle name="Heading1" xfId="2"/>
     <cellStyle name="Hyperlink_Apoyo_PDI" xfId="12"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="3"/>
+    <cellStyle name="Normal 3" xfId="4"/>
     <cellStyle name="Normal 5" xfId="13"/>
+    <cellStyle name="Result" xfId="5"/>
+    <cellStyle name="Result2" xfId="6"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -403,7 +472,18 @@
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
     </indexedColors>
+    <mruColors>
+      <color rgb="FFFFE6E6"/>
+    </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -693,581 +773,481 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja91">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <cols>
-    <col width="56.7109375" customWidth="1" min="1" max="1"/>
+    <col min="1" max="1" width="56.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>FACULTAD DE TEOLOGÍA SAN VICENTE FERRER</t>
-        </is>
+    <row r="1" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja93">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <cols>
-    <col width="40.7109375" customWidth="1" min="1" max="1"/>
-    <col width="10.7109375" customWidth="1" min="2" max="4"/>
+    <col min="1" max="1" width="40.7109375" customWidth="1"/>
+    <col min="2" max="4" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>1. Alumnado matriculado por centro, titulación y sexo. Curso 2023/24</t>
-        </is>
-      </c>
-      <c r="B1" s="4" t="n"/>
-      <c r="C1" s="9" t="n"/>
-      <c r="D1" s="9" t="n"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="9" t="n"/>
-      <c r="B2" s="9" t="n"/>
-      <c r="C2" s="9" t="n"/>
-      <c r="D2" s="9" t="n"/>
-    </row>
-    <row r="3" ht="17.45" customHeight="1">
-      <c r="A3" s="5" t="n"/>
-      <c r="B3" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Total </t>
-        </is>
-      </c>
-      <c r="C3" s="10" t="inlineStr">
-        <is>
-          <t>Hombres</t>
-        </is>
-      </c>
-      <c r="D3" s="18" t="inlineStr">
-        <is>
-          <t>Mujeres</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="17" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B4" s="23" t="n">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" ht="17.45" customHeight="1">
+      <c r="A3" s="5"/>
+      <c r="B3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" customHeight="1">
+      <c r="A4" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="23">
         <v>314</v>
       </c>
-      <c r="C4" s="23" t="n">
+      <c r="C4" s="23">
         <v>218</v>
       </c>
-      <c r="D4" s="23" t="n">
+      <c r="D4" s="23">
         <v>96</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="14" t="inlineStr">
-        <is>
-          <t>Facultad de Teología</t>
-        </is>
-      </c>
-      <c r="B5" s="19" t="n">
+    <row r="5" spans="1:4" ht="15" customHeight="1">
+      <c r="A5" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="19">
         <v>236</v>
       </c>
-      <c r="C5" s="19" t="n">
+      <c r="C5" s="19">
         <v>189</v>
       </c>
-      <c r="D5" s="19" t="n">
+      <c r="D5" s="19">
         <v>47</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="11" t="inlineStr">
-        <is>
-          <t>Bachillerato canónico (Grado)</t>
-        </is>
-      </c>
-      <c r="B6" s="9" t="n">
+    <row r="6" spans="1:4" ht="15" customHeight="1">
+      <c r="A6" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="9">
         <v>120</v>
       </c>
-      <c r="C6" s="9" t="n">
+      <c r="C6" s="9">
         <v>101</v>
       </c>
-      <c r="D6" s="9" t="n">
+      <c r="D6" s="9">
         <v>19</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="12" t="inlineStr">
-        <is>
-          <t>Licenciatura en Teología (Máster)</t>
-        </is>
-      </c>
-      <c r="B7" s="19" t="n">
+    <row r="7" spans="1:4" ht="15" customHeight="1">
+      <c r="A7" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="19">
         <v>99</v>
       </c>
-      <c r="C7" s="19" t="n">
+      <c r="C7" s="19">
         <v>71</v>
       </c>
-      <c r="D7" s="20" t="n">
+      <c r="D7" s="20">
         <v>28</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="11" t="inlineStr">
-        <is>
-          <t>Doctorado en Teología</t>
-        </is>
-      </c>
-      <c r="B8" s="24" t="n">
+    <row r="8" spans="1:4" ht="15" customHeight="1">
+      <c r="A8" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="24">
         <v>17</v>
       </c>
-      <c r="C8" s="24" t="n">
+      <c r="C8" s="24">
         <v>17</v>
       </c>
-      <c r="D8" s="24" t="n">
+      <c r="D8" s="24">
         <v>0</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="14" t="inlineStr">
-        <is>
-          <t>Instituto Superior de Ciencias religiosas</t>
-        </is>
-      </c>
-      <c r="B9" s="19" t="n">
+    <row r="9" spans="1:4" ht="15" customHeight="1">
+      <c r="A9" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="19">
         <v>78</v>
       </c>
-      <c r="C9" s="19" t="n">
+      <c r="C9" s="19">
         <v>29</v>
       </c>
-      <c r="D9" s="19" t="n">
+      <c r="D9" s="19">
         <v>49</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="11" t="inlineStr">
-        <is>
-          <t>Bachillerato en Ciencias Religiosas (Grado)</t>
-        </is>
-      </c>
-      <c r="B10" s="9" t="n">
+    <row r="10" spans="1:4" ht="15" customHeight="1">
+      <c r="A10" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9">
         <v>74</v>
       </c>
-      <c r="C10" s="9" t="n">
+      <c r="C10" s="9">
         <v>25</v>
       </c>
-      <c r="D10" s="9" t="n">
+      <c r="D10" s="9">
         <v>49</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="12" t="inlineStr">
-        <is>
-          <t>Licenciatura en Ciencias Religiosas (Máster)</t>
-        </is>
-      </c>
-      <c r="B11" s="19" t="n">
+    <row r="11" spans="1:4" ht="15" customHeight="1">
+      <c r="A11" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="19">
         <v>4</v>
       </c>
-      <c r="C11" s="19" t="n">
+      <c r="C11" s="19">
         <v>4</v>
       </c>
-      <c r="D11" s="20" t="n">
+      <c r="D11" s="20">
         <v>0</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="8" t="inlineStr">
-        <is>
-          <t>Fuente: Facultad de Teología San Vicente Ferrer.</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="D13" s="15" t="n"/>
-    </row>
-    <row r="15">
-      <c r="B15" s="15" t="n"/>
-      <c r="C15" s="15" t="n"/>
-      <c r="D15" s="15" t="n"/>
+    <row r="12" spans="1:4">
+      <c r="A12" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="D13" s="15"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <cols>
-    <col width="40.7109375" customWidth="1" min="1" max="1"/>
-    <col width="10.7109375" customWidth="1" min="2" max="4"/>
+    <col min="1" max="1" width="40.7109375" customWidth="1"/>
+    <col min="2" max="4" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>2. Alumnado titulado por centro, titulación y sexo. Curso 2022/23</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="n"/>
-      <c r="C1" s="9" t="n"/>
-      <c r="D1" s="9" t="n"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="9" t="n"/>
-      <c r="B2" s="9" t="n"/>
-      <c r="C2" s="9" t="n"/>
-      <c r="D2" s="9" t="n"/>
-    </row>
-    <row r="3" ht="17.45" customHeight="1">
-      <c r="A3" s="5" t="n"/>
-      <c r="B3" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Total </t>
-        </is>
-      </c>
-      <c r="C3" s="10" t="inlineStr">
-        <is>
-          <t>Hombres</t>
-        </is>
-      </c>
-      <c r="D3" s="18" t="inlineStr">
-        <is>
-          <t>Mujeres</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="17" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B4" s="23" t="n">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" ht="17.45" customHeight="1">
+      <c r="A3" s="5"/>
+      <c r="B3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" customHeight="1">
+      <c r="A4" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="16">
         <v>29</v>
       </c>
-      <c r="C4" s="23" t="n">
+      <c r="C4" s="16">
         <v>25</v>
       </c>
-      <c r="D4" s="23" t="n">
+      <c r="D4" s="16">
         <v>4</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="14" t="inlineStr">
-        <is>
-          <t>Facultad de Teología</t>
-        </is>
-      </c>
-      <c r="B5" s="6" t="n">
+    <row r="5" spans="1:4" ht="15" customHeight="1">
+      <c r="A5" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="6">
         <v>25</v>
       </c>
-      <c r="C5" s="6" t="n">
+      <c r="C5" s="6">
         <v>22</v>
       </c>
-      <c r="D5" s="6" t="n">
+      <c r="D5" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="11" t="inlineStr">
-        <is>
-          <t>Bachillerato canónico (Grado)</t>
-        </is>
-      </c>
-      <c r="B6" s="9" t="n">
+    <row r="6" spans="1:4" ht="15" customHeight="1">
+      <c r="A6" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="7">
         <v>18</v>
       </c>
-      <c r="C6" s="9" t="n">
+      <c r="C6" s="7">
         <v>15</v>
       </c>
-      <c r="D6" s="22" t="n">
+      <c r="D6" s="22">
         <v>3</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="12" t="inlineStr">
-        <is>
-          <t>Licenciatura en Teología (Máster)</t>
-        </is>
-      </c>
-      <c r="B7" s="21" t="n">
+    <row r="7" spans="1:4" ht="15" customHeight="1">
+      <c r="A7" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="21">
         <v>6</v>
       </c>
-      <c r="C7" s="21" t="n">
+      <c r="C7" s="21">
         <v>6</v>
       </c>
-      <c r="D7" s="21" t="n">
+      <c r="D7" s="21">
         <v>0</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="11" t="inlineStr">
-        <is>
-          <t>Doctorado en Teología</t>
-        </is>
-      </c>
-      <c r="B8" s="9" t="n">
+    <row r="8" spans="1:4" ht="15" customHeight="1">
+      <c r="A8" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="7">
         <v>1</v>
       </c>
-      <c r="C8" s="9" t="n">
+      <c r="C8" s="7">
         <v>1</v>
       </c>
-      <c r="D8" s="22" t="n">
+      <c r="D8" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="14" t="inlineStr">
-        <is>
-          <t>Instituto Superior de Ciencias religiosas</t>
-        </is>
-      </c>
-      <c r="B9" s="6" t="n">
+    <row r="9" spans="1:4" ht="15" customHeight="1">
+      <c r="A9" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6">
         <v>4</v>
       </c>
-      <c r="C9" s="6" t="n">
+      <c r="C9" s="6">
         <v>3</v>
       </c>
-      <c r="D9" s="6" t="n">
+      <c r="D9" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="11" t="inlineStr">
-        <is>
-          <t>Bachillerato en Ciencias Religiosas (Grado)</t>
-        </is>
-      </c>
-      <c r="B10" s="9" t="n">
+    <row r="10" spans="1:4" ht="15" customHeight="1">
+      <c r="A10" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9">
         <v>4</v>
       </c>
-      <c r="C10" s="9" t="n">
+      <c r="C10" s="9">
         <v>3</v>
       </c>
-      <c r="D10" s="9" t="n">
+      <c r="D10" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="12" t="inlineStr">
-        <is>
-          <t>Licenciatura en Ciencias Religiosas (Máster)</t>
-        </is>
-      </c>
-      <c r="B11" s="19" t="n">
+    <row r="11" spans="1:4" ht="15" customHeight="1">
+      <c r="A11" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="19">
         <v>0</v>
       </c>
-      <c r="C11" s="19" t="n">
+      <c r="C11" s="19">
         <v>0</v>
       </c>
-      <c r="D11" s="20" t="n">
+      <c r="D11" s="20">
         <v>0</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="8" t="inlineStr">
-        <is>
-          <t>Fuente: Facultad de Teología San Vicente Ferrer.</t>
-        </is>
+    <row r="12" spans="1:4">
+      <c r="A12" s="8" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja2">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <cols>
-    <col width="22.85546875" customWidth="1" min="1" max="1"/>
-    <col width="10.7109375" customWidth="1" min="2" max="4"/>
+    <col min="1" max="1" width="22.85546875" customWidth="1"/>
+    <col min="2" max="4" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>3. Profesorado universitario según categoría y sexo. Curso 2023/24</t>
-        </is>
-      </c>
-      <c r="B1" s="4" t="n"/>
-      <c r="C1" s="9" t="n"/>
-      <c r="D1" s="9" t="n"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="9" t="n"/>
-      <c r="B2" s="9" t="n"/>
-      <c r="C2" s="9" t="n"/>
-      <c r="D2" s="9" t="n"/>
-    </row>
-    <row r="3" ht="18" customHeight="1">
-      <c r="A3" s="5" t="n"/>
-      <c r="B3" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Total </t>
-        </is>
-      </c>
-      <c r="C3" s="10" t="inlineStr">
-        <is>
-          <t>Hombres</t>
-        </is>
-      </c>
-      <c r="D3" s="18" t="inlineStr">
-        <is>
-          <t>Mujeres</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="17" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
+    <row r="1" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" ht="18" customHeight="1">
+      <c r="A3" s="5"/>
+      <c r="B3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" customHeight="1">
+      <c r="A4" s="17" t="s">
+        <v>2</v>
       </c>
       <c r="B4" s="23">
         <f>SUM(C4:D4)</f>
-        <v/>
+        <v>70</v>
       </c>
       <c r="C4" s="23">
         <f>SUM(C5:C6)</f>
-        <v/>
+        <v>55</v>
       </c>
       <c r="D4" s="23">
         <f>SUM(D5:D6)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="14" t="inlineStr">
-        <is>
-          <t>Profesorado titular</t>
-        </is>
-      </c>
-      <c r="B5" s="19" t="n">
         <v>15</v>
       </c>
-      <c r="C5" s="19" t="n">
+    </row>
+    <row r="5" spans="1:4" ht="15" customHeight="1">
+      <c r="A5" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="19">
         <v>15</v>
       </c>
-      <c r="D5" s="20" t="n">
+      <c r="C5" s="19">
+        <v>15</v>
+      </c>
+      <c r="D5" s="20">
         <v>0</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="13" t="inlineStr">
-        <is>
-          <t>Otro profesorado</t>
-        </is>
-      </c>
-      <c r="B6" s="9" t="n">
+    <row r="6" spans="1:4" ht="15" customHeight="1">
+      <c r="A6" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="9">
         <v>55</v>
       </c>
-      <c r="C6" s="9" t="n">
+      <c r="C6" s="9">
         <v>40</v>
       </c>
-      <c r="D6" s="9" t="n">
+      <c r="D6" s="9">
         <v>15</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="8" t="inlineStr">
-        <is>
-          <t>Fuente: Facultad de Teología San Vicente Ferrer.</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="D8" s="15" t="n"/>
-    </row>
-    <row r="10">
-      <c r="B10" s="15" t="n"/>
-      <c r="C10" s="15" t="n"/>
-      <c r="D10" s="15" t="n"/>
+    <row r="7" spans="1:4">
+      <c r="A7" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="D8" s="15"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>